--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H2">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I2">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J2">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.2492471506313</v>
+        <v>127.6999736666667</v>
       </c>
       <c r="N2">
-        <v>32.2492471506313</v>
+        <v>383.099921</v>
       </c>
       <c r="O2">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="P2">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="Q2">
-        <v>215.3494526726006</v>
+        <v>3636.789003648576</v>
       </c>
       <c r="R2">
-        <v>215.3494526726006</v>
+        <v>32731.10103283718</v>
       </c>
       <c r="S2">
-        <v>0.1466183070483301</v>
+        <v>0.4248098859629511</v>
       </c>
       <c r="T2">
-        <v>0.1466183070483301</v>
+        <v>0.4248098859629511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H3">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I3">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J3">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.41958075203849</v>
+        <v>0.4321196666666667</v>
       </c>
       <c r="N3">
-        <v>0.41958075203849</v>
+        <v>1.296359</v>
       </c>
       <c r="O3">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="P3">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="Q3">
-        <v>2.80181688835729</v>
+        <v>12.306408583104</v>
       </c>
       <c r="R3">
-        <v>2.80181688835729</v>
+        <v>110.757677247936</v>
       </c>
       <c r="S3">
-        <v>0.001907586221985474</v>
+        <v>0.00143749995437103</v>
       </c>
       <c r="T3">
-        <v>0.001907586221985474</v>
+        <v>0.00143749995437103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H4">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I4">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J4">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.28076905806601</v>
+        <v>4.77305</v>
       </c>
       <c r="N4">
-        <v>3.28076905806601</v>
+        <v>14.31915</v>
       </c>
       <c r="O4">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="P4">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="Q4">
-        <v>21.90785470742031</v>
+        <v>135.9324928224</v>
       </c>
       <c r="R4">
-        <v>21.90785470742031</v>
+        <v>1223.3924354016</v>
       </c>
       <c r="S4">
-        <v>0.01491572199696347</v>
+        <v>0.01587814600093951</v>
       </c>
       <c r="T4">
-        <v>0.01491572199696347</v>
+        <v>0.01587814600093951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H5">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I5">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J5">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.412075094186404</v>
+        <v>0.751186</v>
       </c>
       <c r="N5">
-        <v>0.412075094186404</v>
+        <v>2.253558</v>
       </c>
       <c r="O5">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="P5">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="Q5">
-        <v>2.751696669958242</v>
+        <v>21.393152293248</v>
       </c>
       <c r="R5">
-        <v>2.751696669958242</v>
+        <v>192.538370639232</v>
       </c>
       <c r="S5">
-        <v>0.001873462422368796</v>
+        <v>0.002498913898212201</v>
       </c>
       <c r="T5">
-        <v>0.001873462422368796</v>
+        <v>0.002498913898212201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H6">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I6">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J6">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.2492471506313</v>
+        <v>127.6999736666667</v>
       </c>
       <c r="N6">
-        <v>32.2492471506313</v>
+        <v>383.099921</v>
       </c>
       <c r="O6">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="P6">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="Q6">
-        <v>583.4847714891018</v>
+        <v>2314.776260697488</v>
       </c>
       <c r="R6">
-        <v>583.4847714891018</v>
+        <v>20832.98634627739</v>
       </c>
       <c r="S6">
-        <v>0.3972591911541853</v>
+        <v>0.270386827047189</v>
       </c>
       <c r="T6">
-        <v>0.3972591911541853</v>
+        <v>0.270386827047189</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H7">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I7">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J7">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.41958075203849</v>
+        <v>0.4321196666666667</v>
       </c>
       <c r="N7">
-        <v>0.41958075203849</v>
+        <v>1.296359</v>
       </c>
       <c r="O7">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="P7">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="Q7">
-        <v>7.591463393886122</v>
+        <v>7.832893911094112</v>
       </c>
       <c r="R7">
-        <v>7.591463393886122</v>
+        <v>70.496045199847</v>
       </c>
       <c r="S7">
-        <v>0.005168564382297911</v>
+        <v>0.0009149529339737631</v>
       </c>
       <c r="T7">
-        <v>0.005168564382297911</v>
+        <v>0.0009149529339737631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H8">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I8">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J8">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.28076905806601</v>
+        <v>4.77305</v>
       </c>
       <c r="N8">
-        <v>3.28076905806601</v>
+        <v>14.31915</v>
       </c>
       <c r="O8">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="P8">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="Q8">
-        <v>59.35886736248008</v>
+        <v>86.51953883688336</v>
       </c>
       <c r="R8">
-        <v>59.35886736248008</v>
+        <v>778.6758495319502</v>
       </c>
       <c r="S8">
-        <v>0.04041383218291558</v>
+        <v>0.01010626555183434</v>
       </c>
       <c r="T8">
-        <v>0.04041383218291558</v>
+        <v>0.01010626555183434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H9">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I9">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J9">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.412075094186404</v>
+        <v>0.751186</v>
       </c>
       <c r="N9">
-        <v>0.412075094186404</v>
+        <v>2.253558</v>
       </c>
       <c r="O9">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="P9">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="Q9">
-        <v>7.455663725873901</v>
+        <v>13.61650648971267</v>
       </c>
       <c r="R9">
-        <v>7.455663725873901</v>
+        <v>122.548558407414</v>
       </c>
       <c r="S9">
-        <v>0.005076106671472206</v>
+        <v>0.001590531252515735</v>
       </c>
       <c r="T9">
-        <v>0.005076106671472206</v>
+        <v>0.001590531252515735</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H10">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I10">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J10">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.2492471506313</v>
+        <v>127.6999736666667</v>
       </c>
       <c r="N10">
-        <v>32.2492471506313</v>
+        <v>383.099921</v>
       </c>
       <c r="O10">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="P10">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="Q10">
-        <v>316.0459152332752</v>
+        <v>1470.253981015222</v>
       </c>
       <c r="R10">
-        <v>316.0459152332752</v>
+        <v>13232.285829137</v>
       </c>
       <c r="S10">
-        <v>0.2151763864080558</v>
+        <v>0.1717389778139586</v>
       </c>
       <c r="T10">
-        <v>0.2151763864080558</v>
+        <v>0.1717389778139586</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H11">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I11">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J11">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.41958075203849</v>
+        <v>0.4321196666666667</v>
       </c>
       <c r="N11">
-        <v>0.41958075203849</v>
+        <v>1.296359</v>
       </c>
       <c r="O11">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="P11">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="Q11">
-        <v>4.111934215793767</v>
+        <v>4.975143235738</v>
       </c>
       <c r="R11">
-        <v>4.111934215793767</v>
+        <v>44.776289121642</v>
       </c>
       <c r="S11">
-        <v>0.002799565199408056</v>
+        <v>0.0005811417787787159</v>
       </c>
       <c r="T11">
-        <v>0.002799565199408056</v>
+        <v>0.0005811417787787159</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H12">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I12">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J12">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.28076905806601</v>
+        <v>4.77305</v>
       </c>
       <c r="N12">
-        <v>3.28076905806601</v>
+        <v>14.31915</v>
       </c>
       <c r="O12">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="P12">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="Q12">
-        <v>32.1518717873445</v>
+        <v>54.95377612530001</v>
       </c>
       <c r="R12">
-        <v>32.1518717873445</v>
+        <v>494.5839851277001</v>
       </c>
       <c r="S12">
-        <v>0.02189024839112208</v>
+        <v>0.006419098645976346</v>
       </c>
       <c r="T12">
-        <v>0.02189024839112208</v>
+        <v>0.006419098645976346</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H13">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I13">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J13">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.412075094186404</v>
+        <v>0.751186</v>
       </c>
       <c r="N13">
-        <v>0.412075094186404</v>
+        <v>2.253558</v>
       </c>
       <c r="O13">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="P13">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="Q13">
-        <v>4.038378002397203</v>
+        <v>8.648664328356</v>
       </c>
       <c r="R13">
-        <v>4.038378002397203</v>
+        <v>77.83797895520401</v>
       </c>
       <c r="S13">
-        <v>0.002749485260280066</v>
+        <v>0.001010242305334406</v>
       </c>
       <c r="T13">
-        <v>0.002749485260280066</v>
+        <v>0.001010242305334406</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H14">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I14">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J14">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.2492471506313</v>
+        <v>127.6999736666667</v>
       </c>
       <c r="N14">
-        <v>32.2492471506313</v>
+        <v>383.099921</v>
       </c>
       <c r="O14">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="P14">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="Q14">
-        <v>187.7805475925951</v>
+        <v>757.6433052644649</v>
       </c>
       <c r="R14">
-        <v>187.7805475925951</v>
+        <v>6818.789747380184</v>
       </c>
       <c r="S14">
-        <v>0.1278483211494024</v>
+        <v>0.08849959835093352</v>
       </c>
       <c r="T14">
-        <v>0.1278483211494024</v>
+        <v>0.08849959835093352</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H15">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I15">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J15">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.41958075203849</v>
+        <v>0.4321196666666667</v>
       </c>
       <c r="N15">
-        <v>0.41958075203849</v>
+        <v>1.296359</v>
       </c>
       <c r="O15">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="P15">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="Q15">
-        <v>2.443130005766915</v>
+        <v>2.563763821735</v>
       </c>
       <c r="R15">
-        <v>2.443130005766915</v>
+        <v>23.073874395615</v>
       </c>
       <c r="S15">
-        <v>0.001663378201797016</v>
+        <v>0.0002994708287048115</v>
       </c>
       <c r="T15">
-        <v>0.001663378201797016</v>
+        <v>0.0002994708287048115</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H16">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I16">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J16">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.28076905806601</v>
+        <v>4.77305</v>
       </c>
       <c r="N16">
-        <v>3.28076905806601</v>
+        <v>14.31915</v>
       </c>
       <c r="O16">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="P16">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="Q16">
-        <v>19.1032245612102</v>
+        <v>28.31848178475</v>
       </c>
       <c r="R16">
-        <v>19.1032245612102</v>
+        <v>254.86633606275</v>
       </c>
       <c r="S16">
-        <v>0.01300622039930116</v>
+        <v>0.00330785509017834</v>
       </c>
       <c r="T16">
-        <v>0.01300622039930116</v>
+        <v>0.00330785509017834</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H17">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I17">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J17">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.412075094186404</v>
+        <v>0.751186</v>
       </c>
       <c r="N17">
-        <v>0.412075094186404</v>
+        <v>2.253558</v>
       </c>
       <c r="O17">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="P17">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="Q17">
-        <v>2.399426147040409</v>
+        <v>4.456782782069999</v>
       </c>
       <c r="R17">
-        <v>2.399426147040409</v>
+        <v>40.11104503863</v>
       </c>
       <c r="S17">
-        <v>0.001633622910114424</v>
+        <v>0.0005205925841486482</v>
       </c>
       <c r="T17">
-        <v>0.001633622910114424</v>
+        <v>0.0005205925841486482</v>
       </c>
     </row>
   </sheetData>
